--- a/static/download/2021/RP3_APT_TxOut_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_APT_TxOut_2021_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>Data source</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>EFHK, LPPR, LROP</t>
+  </si>
+  <si>
+    <t>Airports updated with complete 2021 data</t>
   </si>
 </sst>
 </file>
@@ -688,14 +694,14 @@
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
-    <col customWidth="1" min="2" max="3" width="28.57"/>
-    <col customWidth="1" min="4" max="4" width="16.57"/>
-    <col customWidth="1" min="5" max="5" width="25.86"/>
-    <col customWidth="1" min="6" max="6" width="20.29"/>
-    <col customWidth="1" min="7" max="7" width="28.43"/>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col customWidth="1" min="2" max="3" width="25.0"/>
+    <col customWidth="1" min="4" max="4" width="14.5"/>
+    <col customWidth="1" min="5" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="17.75"/>
+    <col customWidth="1" min="7" max="7" width="24.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -725,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44606.0</v>
+        <v>44665.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -991,17 +997,17 @@
         <v>38</v>
       </c>
       <c r="D14" s="24">
-        <v>28723.0</v>
+        <v>33660.0</v>
       </c>
       <c r="E14" s="25">
         <f t="shared" si="1"/>
-        <v>1.412735438</v>
+        <v>2.15</v>
       </c>
       <c r="F14" s="24">
-        <v>40578.0</v>
+        <v>72369.0</v>
       </c>
       <c r="G14" s="26">
-        <v>8.03</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1669,17 +1675,17 @@
         <v>110</v>
       </c>
       <c r="D43" s="24">
-        <v>17575.0</v>
+        <v>26469.0</v>
       </c>
       <c r="E43" s="25">
         <f t="shared" si="3"/>
-        <v>1.395334282</v>
+        <v>1.671766973</v>
       </c>
       <c r="F43" s="24">
-        <v>24523.0</v>
+        <v>44250.0</v>
       </c>
       <c r="G43" s="26">
-        <v>7.85</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -1717,17 +1723,17 @@
         <v>115</v>
       </c>
       <c r="D45" s="24">
-        <v>29185.0</v>
+        <v>32371.0</v>
       </c>
       <c r="E45" s="25">
         <f t="shared" si="3"/>
-        <v>1.68285078</v>
+        <v>1.656359087</v>
       </c>
       <c r="F45" s="24">
-        <v>49114.0</v>
+        <v>53618.0</v>
       </c>
       <c r="G45" s="26">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -1791,12 +1797,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.43"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="92.57"/>
+    <col customWidth="1" min="1" max="1" width="16.13"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="81.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -1826,10 +1832,18 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="31">
+        <v>44300.0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2021.0</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="34"/>
